--- a/Libro 23 (1).xlsx
+++ b/Libro 23 (1).xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6053FA88-59B0-43EC-8C24-D4326F827285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aprendiz CKD\Tablero\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA067EC9-7B6A-49EC-BA12-9854C712E00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3375" yWindow="3375" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -55,7 +60,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,12 +69,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -84,8 +95,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -143,7 +155,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -267,7 +279,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1454442071"/>
@@ -326,7 +338,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="462092488"/>
@@ -368,7 +380,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -398,7 +410,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -994,7 +1006,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1293,12 +1305,12 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1312,11 +1324,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
